--- a/tests/testthat/test_data/96/twoPlatesExtraCol.xlsx
+++ b/tests/testthat/test_data/96/twoPlatesExtraCol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/96/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AFCE6C-0348-E04C-A336-A7E1415263DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F232CB-73BD-A74C-A5F6-570629C234B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="106">
   <si>
     <t>full</t>
   </si>
@@ -28,31 +28,31 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
   </si>
   <si>
     <t>A10</t>
@@ -67,31 +67,31 @@
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
   </si>
   <si>
     <t>B10</t>
@@ -106,31 +106,31 @@
     <t>C</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
   </si>
   <si>
     <t>C10</t>
@@ -145,31 +145,31 @@
     <t>D</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>D09</t>
   </si>
   <si>
     <t>D10</t>
@@ -184,31 +184,31 @@
     <t>E</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
   </si>
   <si>
     <t>E10</t>
@@ -223,31 +223,31 @@
     <t>F</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
   </si>
   <si>
     <t>F10</t>
@@ -262,31 +262,31 @@
     <t>G</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G9</t>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>G09</t>
   </si>
   <si>
     <t>G10</t>
@@ -301,31 +301,31 @@
     <t>H</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H9</t>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>H09</t>
   </si>
   <si>
     <t>H10</t>
@@ -1180,9 +1180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1633,6 +1631,9 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
@@ -1692,6 +1693,9 @@
       <c r="J13" t="s">
         <v>23</v>
       </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
       <c r="L13" t="s">
         <v>25</v>
       </c>
@@ -1727,9 +1731,6 @@
       <c r="I14" t="s">
         <v>35</v>
       </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
       <c r="K14" t="s">
         <v>37</v>
       </c>
@@ -1753,8 +1754,8 @@
       <c r="D15" t="s">
         <v>43</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
+      <c r="F15" t="s">
+        <v>45</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1832,6 +1833,9 @@
       <c r="D17" t="s">
         <v>69</v>
       </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
       <c r="F17" t="s">
         <v>71</v>
       </c>
@@ -1840,9 +1844,6 @@
       </c>
       <c r="H17" t="s">
         <v>73</v>
-      </c>
-      <c r="I17" t="s">
-        <v>74</v>
       </c>
       <c r="J17" t="s">
         <v>75</v>
